--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\ARISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{63DF3EE5-BC6A-4432-9955-7F505EDF4112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B9080EC-FF64-4085-9D61-5BA963876634}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06968354-CC1C-44F5-802A-7AB1017368F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="450" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Group</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Background Calculations</t>
   </si>
   <si>
-    <t>Design: Single-factor, between-subjects.</t>
-  </si>
-  <si>
     <t>Separate versions of the file can be saved for different data sets.</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Use of this Module</t>
   </si>
   <si>
-    <t>Email: cwendorf@uwsp.edu</t>
-  </si>
-  <si>
     <t>University of Wisconsin - Stevens Point</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>Analysis of Variance from the Summary Statistics</t>
   </si>
   <si>
-    <t>How to Cite this Module</t>
-  </si>
-  <si>
     <t>Overview of ARISE</t>
   </si>
   <si>
@@ -326,15 +317,6 @@
     <t>Version: 2.20191030</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE</t>
-  </si>
-  <si>
-    <t>ARISE: Arelational and Relational Interval Statistics with Excel.</t>
-  </si>
-  <si>
-    <t>Available at https://github.com/cwendorf/BASE</t>
-  </si>
-  <si>
     <t>This module uses raw data as input.</t>
   </si>
   <si>
@@ -345,6 +327,21 @@
   </si>
   <si>
     <t>This workbook also provides null hypothesis significance tests for pairwise comparisons.</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/master/ARISE</t>
+  </si>
+  <si>
+    <t>How to Cite</t>
+  </si>
+  <si>
+    <t>Retrieved from https://github.com/cwendorf/BASE/tree/master/ARISE</t>
+  </si>
+  <si>
+    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
+  </si>
+  <si>
+    <t>cwendorf@uwsp.edu</t>
   </si>
 </sst>
 </file>
@@ -461,16 +458,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="14"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -848,9 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1066,7 +1059,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1185,26 +1178,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1217,45 +1209,38 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1264,6 +1249,17 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3118,110 +3114,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K20" sqref="K20:K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.578125" customWidth="1"/>
-    <col min="9" max="10" width="4.578125" customWidth="1"/>
-    <col min="18" max="19" width="4.578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="9" max="10" width="4.5703125" customWidth="1"/>
+    <col min="18" max="19" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="106"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-    </row>
-    <row r="2" spans="1:17" s="108" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="149" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-    </row>
-    <row r="3" spans="1:17" s="108" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="106"/>
-      <c r="B3" s="151" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-    </row>
-    <row r="4" spans="1:17" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="112"/>
-      <c r="B4" s="151" t="s">
+    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+    </row>
+    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="152" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-    </row>
-    <row r="5" spans="1:17" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+    </row>
+    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="105"/>
+      <c r="B3" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+    </row>
+    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111"/>
+      <c r="B4" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+    </row>
+    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3232,11 +3228,11 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="110"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3248,10 +3244,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3262,13 +3258,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="110"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="109"/>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3279,13 +3275,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="110"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="109"/>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3296,11 +3292,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="110"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="109"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -3308,10 +3304,10 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
       <c r="B12" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -3320,11 +3316,11 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="K12" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="110"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
       <c r="B13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -3332,49 +3328,49 @@
       <c r="H13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
       <c r="B14" s="33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="K14" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="110"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
       <c r="B15" s="33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="K15" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="110"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
       <c r="B16" s="33" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="K16" s="111" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3383,11 +3379,11 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="K17" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="110"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -3395,21 +3391,21 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="K18" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="110"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="110"/>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
       <c r="B20" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -3418,11 +3414,11 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="K20" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="110"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -3432,13 +3428,13 @@
       <c r="H21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
       <c r="B22" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -3446,101 +3442,98 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="K22" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="110"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="109"/>
       <c r="B23" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="K23" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="K24" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="110"/>
+      <c r="K24" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="109"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="K25" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="110"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="110"/>
-      <c r="B27" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="K25" s="122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="109"/>
+      <c r="K26" s="122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="109"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
-      <c r="K27" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="110"/>
-      <c r="B28" s="33"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
+      <c r="B28" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="110"/>
-      <c r="B29" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="K28" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="109"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="K29" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -3549,26 +3542,24 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="K30" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="33"/>
-      <c r="K31" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="K32" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33" s="123" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3583,10 +3574,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K25" r:id="rId3" xr:uid="{8037B645-5FA1-4113-BE85-EF4C09A7DAC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;LArelational and Relational Intervals with Excel (ARISE)&amp;RDesign: Single Factor, Between-Subjects</oddHeader>
   </headerFooter>
@@ -3601,60 +3593,60 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" style="39" customWidth="1"/>
-    <col min="2" max="8" width="11.26171875" style="39"/>
-    <col min="9" max="10" width="4.68359375" style="39" customWidth="1"/>
-    <col min="11" max="13" width="11.26171875" style="40"/>
-    <col min="14" max="17" width="11.26171875" style="39"/>
-    <col min="18" max="18" width="4.68359375" style="39" customWidth="1"/>
-    <col min="19" max="19" width="4.68359375" style="39" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="0" style="39" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.68359375" style="39" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.68359375" style="39" customWidth="1"/>
-    <col min="29" max="16384" width="11.26171875" style="39"/>
+    <col min="1" max="1" width="4.7109375" style="38" customWidth="1"/>
+    <col min="2" max="8" width="11.28515625" style="38"/>
+    <col min="9" max="10" width="4.7109375" style="38" customWidth="1"/>
+    <col min="11" max="13" width="11.28515625" style="39"/>
+    <col min="14" max="17" width="11.28515625" style="38"/>
+    <col min="18" max="18" width="4.7109375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="0" style="38" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="38" customWidth="1"/>
+    <col min="29" max="16384" width="11.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K1" s="91"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="162" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="K2" s="162" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="T2" s="162" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="150" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="K2" s="150" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="T2" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -3670,23 +3662,23 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="K4" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="K4" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="T4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -3695,17 +3687,17 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -3714,24 +3706,24 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="K6" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="89" t="str">
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="K6" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="88" t="str">
         <f>IF(B19="","",B19)</f>
         <v/>
       </c>
-      <c r="M6" s="89" t="str">
+      <c r="M6" s="88" t="str">
         <f>IF(B20="","",B20)</f>
         <v/>
       </c>
@@ -3750,19 +3742,19 @@
       <c r="X6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
       <c r="S7" s="2"/>
       <c r="T7" s="17">
         <v>1</v>
@@ -3775,7 +3767,7 @@
         <f t="array" ref="V7">IFERROR(STDEV(IF($L:$L=$T7,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W7" s="87" t="str">
+      <c r="W7" s="86" t="str">
         <f>IF(COUNTIF($L:$L,$T7)&lt;1,"",COUNTIF($L:$L,$T7))</f>
         <v/>
       </c>
@@ -3783,143 +3775,143 @@
         <f t="shared" ref="X7:X12" si="0">IFERROR(V7/SQRT(W7),"")</f>
         <v/>
       </c>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="82">
+      <c r="T8" s="81">
         <v>2</v>
       </c>
-      <c r="U8" s="80" t="str">
+      <c r="U8" s="79" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T8),"")</f>
         <v/>
       </c>
-      <c r="V8" s="80" t="str">
+      <c r="V8" s="79" t="str">
         <f t="array" ref="V8">IFERROR(STDEV(IF($L:$L=$T8,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W8" s="81" t="str">
+      <c r="W8" s="80" t="str">
         <f>IF(COUNTIF($L:$L,$T8)&lt;1,"",COUNTIF($L:$L,$T8))</f>
         <v/>
       </c>
-      <c r="X8" s="57" t="str">
+      <c r="X8" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-    </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+    </row>
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="82">
+      <c r="T9" s="81">
         <v>3</v>
       </c>
-      <c r="U9" s="80" t="str">
+      <c r="U9" s="79" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T9),"")</f>
         <v/>
       </c>
-      <c r="V9" s="80" t="str">
+      <c r="V9" s="79" t="str">
         <f t="array" ref="V9">IFERROR(STDEV(IF($L:$L=$T9,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W9" s="81" t="str">
+      <c r="W9" s="80" t="str">
         <f>IF(COUNTIF($L:$L,$T9)&lt;1,"",COUNTIF($L:$L,$T9))</f>
         <v/>
       </c>
-      <c r="X9" s="57" t="str">
+      <c r="X9" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-    </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="82">
+      <c r="T10" s="81">
         <v>4</v>
       </c>
-      <c r="U10" s="80" t="str">
+      <c r="U10" s="79" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T10),"")</f>
         <v/>
       </c>
-      <c r="V10" s="80" t="str">
+      <c r="V10" s="79" t="str">
         <f t="array" ref="V10">IFERROR(STDEV(IF($L:$L=$T10,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W10" s="81" t="str">
+      <c r="W10" s="80" t="str">
         <f>IF(COUNTIF($L:$L,$T10)&lt;1,"",COUNTIF($L:$L,$T10))</f>
         <v/>
       </c>
-      <c r="X10" s="57" t="str">
+      <c r="X10" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="82">
+      <c r="T11" s="81">
         <v>5</v>
       </c>
-      <c r="U11" s="80" t="str">
+      <c r="U11" s="79" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T11),"")</f>
         <v/>
       </c>
-      <c r="V11" s="80" t="str">
+      <c r="V11" s="79" t="str">
         <f t="array" ref="V11">IFERROR(STDEV(IF($L:$L=$T11,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W11" s="81" t="str">
+      <c r="W11" s="80" t="str">
         <f>IF(COUNTIF($L:$L,$T11)&lt;1,"",COUNTIF($L:$L,$T11))</f>
         <v/>
       </c>
-      <c r="X11" s="57" t="str">
+      <c r="X11" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-    </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+    </row>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
       <c r="T12" s="20" t="s">
         <v>22</v>
       </c>
@@ -3931,7 +3923,7 @@
         <f>IFERROR(STDEV($M:$M),"")</f>
         <v/>
       </c>
-      <c r="W12" s="78">
+      <c r="W12" s="77">
         <f>IFERROR(COUNT($L:$L),"")</f>
         <v>0</v>
       </c>
@@ -3939,68 +3931,68 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
       <c r="S13" s="2"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-    </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
       <c r="S14" s="2"/>
       <c r="T14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="68"/>
-    </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B16" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="72"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="67"/>
+    </row>
+    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="71"/>
       <c r="S16" s="3"/>
       <c r="T16" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23">
@@ -4019,119 +4011,119 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="46">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="45">
         <v>1</v>
       </c>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="64"/>
-    </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="169" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="67" t="s">
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="63"/>
+    </row>
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" s="82"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57">
+      <c r="C18" s="166"/>
+      <c r="D18" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="81"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56">
         <v>1</v>
       </c>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="56"/>
-    </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="55"/>
+    </row>
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="58"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57">
+      <c r="T19" s="81"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56">
         <v>1</v>
       </c>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="56"/>
-    </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="163"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="51"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="55"/>
+    </row>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="50"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57">
+      <c r="T20" s="81"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56">
         <v>1</v>
       </c>
-      <c r="Z20" s="56"/>
-    </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
+      <c r="Z20" s="55"/>
+    </row>
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54">
+      <c r="T21" s="116"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="169" t="str">
+    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="166" t="str">
         <f>IF(B19="","Factor",B19)</f>
         <v>Factor</v>
       </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="61" t="s">
-        <v>44</v>
+      <c r="C22" s="166"/>
+      <c r="D22" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="60" t="s">
+        <v>42</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="24"/>
@@ -4142,56 +4134,56 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="59" t="str">
+    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="163"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="58" t="str">
         <f>IF(B23="","",1)</f>
         <v/>
       </c>
       <c r="S23" s="2"/>
-      <c r="T23" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
+      <c r="T23" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
       <c r="Z23" s="29"/>
     </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="53" t="str">
+    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="52" t="str">
         <f>IF(B24="","",2)</f>
         <v/>
       </c>
       <c r="S24" s="2"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
       <c r="Z24" s="29"/>
     </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="53" t="str">
+    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="52" t="str">
         <f>IF(B25="","",3)</f>
         <v/>
       </c>
@@ -4218,37 +4210,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="52" t="str">
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="51" t="str">
         <f>IF(B26="","",4)</f>
         <v/>
       </c>
-      <c r="T26" s="118" t="s">
+      <c r="T26" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="46" t="str">
+      <c r="U26" s="45" t="str">
         <f t="array" ref="U26">IFERROR(DEVSQ(U7:U11)*(W7:W11),"")</f>
         <v/>
       </c>
-      <c r="V26" s="45">
+      <c r="V26" s="44">
         <f>IFERROR(COUNT(W7:W11)-1,"")</f>
         <v>-1</v>
       </c>
-      <c r="W26" s="44" t="str">
+      <c r="W26" s="43" t="str">
         <f>IFERROR(U26/V26,"")</f>
         <v/>
       </c>
-      <c r="X26" s="44" t="str">
+      <c r="X26" s="43" t="str">
         <f>IFERROR(W26/W27,"")</f>
         <v/>
       </c>
-      <c r="Y26" s="44" t="str">
+      <c r="Y26" s="43" t="str">
         <f>IFERROR(IF(FDIST(X26,V26,V27)&lt;0.001,"&lt; 0.001",FDIST(X26,V26,V27)),"")</f>
         <v/>
       </c>
@@ -4257,19 +4249,19 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="51" t="str">
+    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="50" t="str">
         <f>IF(B27="","",5)</f>
         <v/>
       </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="119" t="s">
+      <c r="T27" s="118" t="s">
         <v>15</v>
       </c>
       <c r="U27" s="8">
@@ -4288,35 +4280,35 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="120" t="s">
+      <c r="T28" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="U28" s="42" t="str">
+      <c r="U28" s="41" t="str">
         <f>IFERROR((V12^2)*(W12-1),"")</f>
         <v/>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="42">
         <f>W12-1</f>
         <v>-1</v>
       </c>
-      <c r="W28" s="42" t="str">
+      <c r="W28" s="41" t="str">
         <f>IFERROR(U28/V28,"")</f>
         <v/>
       </c>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
       <c r="Z28" s="31"/>
     </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T29" s="30"/>
       <c r="U29" s="30"/>
       <c r="V29" s="30"/>
@@ -4325,26 +4317,35 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M34" s="41"/>
+    <row r="34" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="40"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S35" s="29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -4357,15 +4358,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4383,433 +4375,433 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="124" customWidth="1"/>
-    <col min="2" max="8" width="11.15625" style="124"/>
-    <col min="9" max="10" width="4.578125" style="124" customWidth="1"/>
-    <col min="11" max="17" width="11.15625" style="124"/>
-    <col min="18" max="19" width="4.578125" style="124" customWidth="1"/>
-    <col min="20" max="16384" width="11.15625" style="124"/>
+    <col min="1" max="1" width="4.5703125" style="123" customWidth="1"/>
+    <col min="2" max="8" width="11.140625" style="123"/>
+    <col min="9" max="10" width="4.5703125" style="123" customWidth="1"/>
+    <col min="11" max="17" width="11.140625" style="123"/>
+    <col min="18" max="19" width="4.5703125" style="123" customWidth="1"/>
+    <col min="20" max="16384" width="11.140625" style="123"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="171" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="K2" s="171" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-    </row>
-    <row r="4" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="126"/>
-      <c r="G4" s="124" t="s">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="168" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="K2" s="168" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+    </row>
+    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="125"/>
+      <c r="G4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="121">
         <v>95</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125" t="s">
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+    </row>
+    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+    </row>
+    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="167" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="167"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-    </row>
-    <row r="5" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-    </row>
-    <row r="6" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170" t="s">
+      <c r="M6" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="129" t="str">
+        <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
+        <v/>
+      </c>
+      <c r="C7" s="130" t="str">
+        <f>IFERROR(Data!U7,"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="130" t="str">
+        <f>IF(C7="","",Data!V7)</f>
+        <v/>
+      </c>
+      <c r="E7" s="131" t="str">
+        <f>IFERROR(C7-TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="131" t="str">
+        <f>IFERROR(C7+TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
+        <v/>
+      </c>
+      <c r="G7" s="132" t="str">
+        <f>IFERROR(C7-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="132" t="str">
+        <f>IFERROR(C7+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="133" t="str">
+        <f t="shared" ref="K7:K11" si="0">B7</f>
+        <v/>
+      </c>
+      <c r="L7" s="91"/>
+      <c r="M7" s="130" t="str">
+        <f>IFERROR(C7-L7,"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="92" t="str">
+        <f>IFERROR(Data!W7-1,"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="130" t="str">
+        <f>IFERROR(Data!X7,"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="130" t="str">
+        <f>IFERROR(M7/O7,"")</f>
+        <v/>
+      </c>
+      <c r="Q7" s="130" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P7),N7,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P7),N7,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="133" t="str">
+        <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
+        <v/>
+      </c>
+      <c r="C8" s="130" t="str">
+        <f>IFERROR(Data!U8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="130" t="str">
+        <f>IF(C8="","",Data!V8)</f>
+        <v/>
+      </c>
+      <c r="E8" s="130" t="str">
+        <f>IFERROR(C8-TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="130" t="str">
+        <f>IFERROR(C8+TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="130" t="str">
+        <f>IFERROR(C8-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="130" t="str">
+        <f>IFERROR(C8+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" s="91"/>
+      <c r="M8" s="130" t="str">
+        <f>IFERROR(C8-L8,"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="92" t="str">
+        <f>IFERROR(Data!W8-1,"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="130" t="str">
+        <f>IFERROR(Data!X8,"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="130" t="str">
+        <f>IFERROR(M8/O8,"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="130" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P8),N8,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P8),N8,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="133" t="str">
+        <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
+        <v/>
+      </c>
+      <c r="C9" s="130" t="str">
+        <f>IFERROR(Data!U9,"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="130" t="str">
+        <f>IF(C9="","",Data!V9)</f>
+        <v/>
+      </c>
+      <c r="E9" s="130" t="str">
+        <f>IFERROR(C9-TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="130" t="str">
+        <f>IFERROR(C9+TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="130" t="str">
+        <f>IFERROR(C9-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="130" t="str">
+        <f>IFERROR(C9+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="130" t="str">
+        <f>IFERROR(C9-L9,"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="92" t="str">
+        <f>IFERROR(Data!W9-1,"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="130" t="str">
+        <f>IFERROR(Data!X9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="130" t="str">
+        <f>IFERROR(M9/O9,"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="130" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P9),N9,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P9),N9,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="133" t="str">
+        <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
+        <v/>
+      </c>
+      <c r="C10" s="130" t="str">
+        <f>IFERROR(Data!U10,"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="130" t="str">
+        <f>IF(C10="","",Data!V10)</f>
+        <v/>
+      </c>
+      <c r="E10" s="130" t="str">
+        <f>IFERROR(C10-TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="130" t="str">
+        <f>IFERROR(C10+TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="130" t="str">
+        <f>IFERROR(C10-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="130" t="str">
+        <f>IFERROR(C10+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="130" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="130" t="str">
+        <f>IFERROR(C10-L10,"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="92" t="str">
+        <f>IFERROR(Data!W10-1,"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="130" t="str">
+        <f>IFERROR(Data!X10,"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="130" t="str">
+        <f>IFERROR(M10/O10,"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="130" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P10),N10,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P10),N10,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="147" t="str">
+        <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
+        <v/>
+      </c>
+      <c r="C11" s="134" t="str">
+        <f>IFERROR(Data!U11,"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="134" t="str">
+        <f>IF(C11="","",Data!V11)</f>
+        <v/>
+      </c>
+      <c r="E11" s="134" t="str">
+        <f>IFERROR(C11-TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="134" t="str">
+        <f>IFERROR(C11+TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="134" t="str">
+        <f>IFERROR(C11-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H11" s="134" t="str">
+        <f>IFERROR(C11+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="93"/>
+      <c r="M11" s="134" t="str">
+        <f>IFERROR(C11-L11,"")</f>
+        <v/>
+      </c>
+      <c r="N11" s="94" t="str">
+        <f>IFERROR(Data!W11-1,"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="134" t="str">
+        <f>IFERROR(Data!X11,"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="134" t="str">
+        <f>IFERROR(M11/O11,"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="134" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P11),N11,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P11),N11,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+    </row>
+    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="H6" s="170"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="130" t="str">
-        <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
-        <v/>
-      </c>
-      <c r="C7" s="131" t="str">
-        <f>IFERROR(Data!U7,"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="131" t="str">
-        <f>IF(C7="","",Data!V7)</f>
-        <v/>
-      </c>
-      <c r="E7" s="132" t="str">
-        <f>IFERROR(C7-TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="132" t="str">
-        <f>IFERROR(C7+TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="133" t="str">
-        <f>IFERROR(C7-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H7" s="133" t="str">
-        <f>IFERROR(C7+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="134" t="str">
-        <f t="shared" ref="K7:K11" si="0">B7</f>
-        <v/>
-      </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="131" t="str">
-        <f>IFERROR(C7-L7,"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="93" t="str">
-        <f>IFERROR(Data!W7-1,"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="131" t="str">
-        <f>IFERROR(Data!X7,"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="131" t="str">
-        <f>IFERROR(M7/O7,"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="131" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P7),N7,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P7),N7,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="134" t="str">
-        <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
-        <v/>
-      </c>
-      <c r="C8" s="131" t="str">
-        <f>IFERROR(Data!U8,"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="131" t="str">
-        <f>IF(C8="","",Data!V8)</f>
-        <v/>
-      </c>
-      <c r="E8" s="131" t="str">
-        <f>IFERROR(C8-TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="131" t="str">
-        <f>IFERROR(C8+TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="131" t="str">
-        <f>IFERROR(C8-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H8" s="131" t="str">
-        <f>IFERROR(C8+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="131" t="str">
-        <f>IFERROR(C8-L8,"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="93" t="str">
-        <f>IFERROR(Data!W8-1,"")</f>
-        <v/>
-      </c>
-      <c r="O8" s="131" t="str">
-        <f>IFERROR(Data!X8,"")</f>
-        <v/>
-      </c>
-      <c r="P8" s="131" t="str">
-        <f>IFERROR(M8/O8,"")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="131" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P8),N8,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P8),N8,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="134" t="str">
-        <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
-        <v/>
-      </c>
-      <c r="C9" s="131" t="str">
-        <f>IFERROR(Data!U9,"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="131" t="str">
-        <f>IF(C9="","",Data!V9)</f>
-        <v/>
-      </c>
-      <c r="E9" s="131" t="str">
-        <f>IFERROR(C9-TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="131" t="str">
-        <f>IFERROR(C9+TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="131" t="str">
-        <f>IFERROR(C9-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="131" t="str">
-        <f>IFERROR(C9+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="131" t="str">
-        <f>IFERROR(C9-L9,"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="93" t="str">
-        <f>IFERROR(Data!W9-1,"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="131" t="str">
-        <f>IFERROR(Data!X9,"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="131" t="str">
-        <f>IFERROR(M9/O9,"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="131" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P9),N9,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P9),N9,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="134" t="str">
-        <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
-        <v/>
-      </c>
-      <c r="C10" s="131" t="str">
-        <f>IFERROR(Data!U10,"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="131" t="str">
-        <f>IF(C10="","",Data!V10)</f>
-        <v/>
-      </c>
-      <c r="E10" s="131" t="str">
-        <f>IFERROR(C10-TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="131" t="str">
-        <f>IFERROR(C10+TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="131" t="str">
-        <f>IFERROR(C10-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="131" t="str">
-        <f>IFERROR(C10+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="92"/>
-      <c r="M10" s="131" t="str">
-        <f>IFERROR(C10-L10,"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="93" t="str">
-        <f>IFERROR(Data!W10-1,"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="131" t="str">
-        <f>IFERROR(Data!X10,"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="131" t="str">
-        <f>IFERROR(M10/O10,"")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="131" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P10),N10,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P10),N10,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="148" t="str">
-        <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
-        <v/>
-      </c>
-      <c r="C11" s="135" t="str">
-        <f>IFERROR(Data!U11,"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="135" t="str">
-        <f>IF(C11="","",Data!V11)</f>
-        <v/>
-      </c>
-      <c r="E11" s="135" t="str">
-        <f>IFERROR(C11-TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="135" t="str">
-        <f>IFERROR(C11+TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="135" t="str">
-        <f>IFERROR(C11-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="135" t="str">
-        <f>IFERROR(C11+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="135" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="94"/>
-      <c r="M11" s="135" t="str">
-        <f>IFERROR(C11-L11,"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="95" t="str">
-        <f>IFERROR(Data!W11-1,"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="135" t="str">
-        <f>IFERROR(Data!X11,"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="135" t="str">
-        <f>IFERROR(M11/O11,"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="135" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P11),N11,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P11),N11,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-    </row>
-    <row r="13" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -4818,16 +4810,16 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
+    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4836,30 +4828,30 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="121" t="s">
-        <v>63</v>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="120" t="s">
+        <v>61</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="121" t="s">
+      <c r="N15" s="120" t="s">
         <v>2</v>
       </c>
       <c r="O15" s="23" t="s">
@@ -4872,7 +4864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
@@ -4894,35 +4886,35 @@
       <c r="H16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="114" t="str">
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="113" t="str">
         <f>IF(M16="","","1 vs. 2")</f>
         <v/>
       </c>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97" t="str">
+      <c r="L16" s="95"/>
+      <c r="M16" s="96" t="str">
         <f>IFERROR(C7-C8-L16,"")</f>
         <v/>
       </c>
-      <c r="N16" s="99" t="str">
+      <c r="N16" s="98" t="str">
         <f>IFERROR(Data!W7+Data!W8-2,"")</f>
         <v/>
       </c>
-      <c r="O16" s="97" t="str">
+      <c r="O16" s="96" t="str">
         <f>IF(M16="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P16" s="98" t="str">
+      <c r="P16" s="97" t="str">
         <f t="shared" ref="P16:P25" si="1">IFERROR(M16/O16,"")</f>
         <v/>
       </c>
-      <c r="Q16" s="132" t="str">
+      <c r="Q16" s="131" t="str">
         <f t="shared" ref="Q16:Q25" si="2">IFERROR(IF(TDIST(ABS(P16),N16,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P16),N16,2)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -4943,35 +4935,35 @@
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="115" t="str">
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="114" t="str">
         <f>IF(M17="","","1 vs. 3")</f>
         <v/>
       </c>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101" t="str">
+      <c r="L17" s="99"/>
+      <c r="M17" s="100" t="str">
         <f>IFERROR(C7-C9-L17,"")</f>
         <v/>
       </c>
-      <c r="N17" s="93" t="str">
+      <c r="N17" s="92" t="str">
         <f>IFERROR(Data!W7+Data!W9-2,"")</f>
         <v/>
       </c>
-      <c r="O17" s="101" t="str">
+      <c r="O17" s="100" t="str">
         <f>IF(M17="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P17" s="102" t="str">
+      <c r="P17" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q17" s="131" t="str">
+      <c r="Q17" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -4992,35 +4984,35 @@
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="115" t="str">
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="114" t="str">
         <f>IF(M18="","","1 vs. 4")</f>
         <v/>
       </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101" t="str">
+      <c r="L18" s="99"/>
+      <c r="M18" s="100" t="str">
         <f>IFERROR(C7-C10-L18,"")</f>
         <v/>
       </c>
-      <c r="N18" s="93" t="str">
+      <c r="N18" s="92" t="str">
         <f>IFERROR(Data!W7+Data!W10-2,"")</f>
         <v/>
       </c>
-      <c r="O18" s="101" t="str">
+      <c r="O18" s="100" t="str">
         <f>IF(M18="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P18" s="102" t="str">
+      <c r="P18" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q18" s="131" t="str">
+      <c r="Q18" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5041,33 +5033,33 @@
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="K19" s="115" t="str">
+      <c r="K19" s="114" t="str">
         <f>IF(M19="","","1 vs. 5")</f>
         <v/>
       </c>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101" t="str">
+      <c r="L19" s="99"/>
+      <c r="M19" s="100" t="str">
         <f>IFERROR(C7-C11-L19,"")</f>
         <v/>
       </c>
-      <c r="N19" s="93" t="str">
+      <c r="N19" s="92" t="str">
         <f>IFERROR(Data!W7+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O19" s="101" t="str">
+      <c r="O19" s="100" t="str">
         <f>IF(M19="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P19" s="102" t="str">
+      <c r="P19" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q19" s="131" t="str">
+      <c r="Q19" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>2.15</v>
       </c>
@@ -5088,33 +5080,33 @@
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="K20" s="115" t="str">
+      <c r="K20" s="114" t="str">
         <f>IF(M20="","","2 vs. 3")</f>
         <v/>
       </c>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101" t="str">
+      <c r="L20" s="99"/>
+      <c r="M20" s="100" t="str">
         <f>IFERROR(C8-C9-L20,"")</f>
         <v/>
       </c>
-      <c r="N20" s="93" t="str">
+      <c r="N20" s="92" t="str">
         <f>IFERROR(Data!W8+Data!W9-2,"")</f>
         <v/>
       </c>
-      <c r="O20" s="101" t="str">
+      <c r="O20" s="100" t="str">
         <f>IF(M20="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P20" s="102" t="str">
+      <c r="P20" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="131" t="str">
+      <c r="Q20" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>2.15</v>
       </c>
@@ -5135,33 +5127,33 @@
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="K21" s="115" t="str">
+      <c r="K21" s="114" t="str">
         <f>IF(M21="","","2 vs. 4")</f>
         <v/>
       </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101" t="str">
+      <c r="L21" s="99"/>
+      <c r="M21" s="100" t="str">
         <f>IFERROR(C8-C10-L21,"")</f>
         <v/>
       </c>
-      <c r="N21" s="93" t="str">
+      <c r="N21" s="92" t="str">
         <f>IFERROR(Data!W8+Data!W10-2,"")</f>
         <v/>
       </c>
-      <c r="O21" s="101" t="str">
+      <c r="O21" s="100" t="str">
         <f>IF(M21="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P21" s="102" t="str">
+      <c r="P21" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q21" s="131" t="str">
+      <c r="Q21" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>2.15</v>
       </c>
@@ -5182,33 +5174,33 @@
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="K22" s="115" t="str">
+      <c r="K22" s="114" t="str">
         <f>IF(M22="","","2 vs. 5")</f>
         <v/>
       </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101" t="str">
+      <c r="L22" s="99"/>
+      <c r="M22" s="100" t="str">
         <f>IFERROR(C8-C11-L22,"")</f>
         <v/>
       </c>
-      <c r="N22" s="93" t="str">
+      <c r="N22" s="92" t="str">
         <f>IFERROR(Data!W8+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O22" s="101" t="str">
+      <c r="O22" s="100" t="str">
         <f>IF(M22="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P22" s="102" t="str">
+      <c r="P22" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q22" s="131" t="str">
+      <c r="Q22" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>3.15</v>
       </c>
@@ -5229,33 +5221,33 @@
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="K23" s="115" t="str">
+      <c r="K23" s="114" t="str">
         <f>IF(M23="","","3 vs. 4")</f>
         <v/>
       </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101" t="str">
+      <c r="L23" s="99"/>
+      <c r="M23" s="100" t="str">
         <f>IFERROR(C9-C10-L23,"")</f>
         <v/>
       </c>
-      <c r="N23" s="93" t="str">
+      <c r="N23" s="92" t="str">
         <f>IFERROR(Data!W9+Data!W10-2,"")</f>
         <v/>
       </c>
-      <c r="O23" s="101" t="str">
+      <c r="O23" s="100" t="str">
         <f>IF(M23="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P23" s="102" t="str">
+      <c r="P23" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q23" s="131" t="str">
+      <c r="Q23" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>3.15</v>
       </c>
@@ -5276,33 +5268,33 @@
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="K24" s="115" t="str">
+      <c r="K24" s="114" t="str">
         <f>IF(M24="","","3 vs. 5")</f>
         <v/>
       </c>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101" t="str">
+      <c r="L24" s="99"/>
+      <c r="M24" s="100" t="str">
         <f>IFERROR(C9-C11-L24,"")</f>
         <v/>
       </c>
-      <c r="N24" s="93" t="str">
+      <c r="N24" s="92" t="str">
         <f>IFERROR(Data!W9+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O24" s="101" t="str">
+      <c r="O24" s="100" t="str">
         <f>IF(M24="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P24" s="102" t="str">
+      <c r="P24" s="101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q24" s="131" t="str">
+      <c r="Q24" s="130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>3.15</v>
       </c>
@@ -5323,33 +5315,33 @@
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="K25" s="115" t="str">
+      <c r="K25" s="114" t="str">
         <f>IF(M25="","","4 vs. 5")</f>
         <v/>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="101" t="str">
+      <c r="L25" s="102"/>
+      <c r="M25" s="100" t="str">
         <f>IFERROR(C10-C11-L25,"")</f>
         <v/>
       </c>
-      <c r="N25" s="95" t="str">
+      <c r="N25" s="94" t="str">
         <f>IFERROR(Data!W10+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O25" s="104" t="str">
+      <c r="O25" s="103" t="str">
         <f>IF(M25="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P25" s="105" t="str">
+      <c r="P25" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q25" s="135" t="str">
+      <c r="Q25" s="134" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>4.1500000000000004</v>
       </c>
@@ -5378,7 +5370,7 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -5399,11 +5391,11 @@
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="K27" s="125" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K27" s="124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -5425,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <v>5.15</v>
       </c>
@@ -5433,45 +5425,45 @@
         <f>IF(F11="",NA(),F11)</f>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="136"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="7" t="e">
         <f>IF(H11="",NA(),H11)</f>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="136">
+      <c r="G29" s="135">
         <v>4.5</v>
       </c>
-      <c r="H29" s="136">
+      <c r="H29" s="135">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="K29" s="137" t="str">
+      <c r="K29" s="136" t="str">
         <f>Data!T25</f>
         <v>Source</v>
       </c>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138" t="str">
+      <c r="L29" s="137"/>
+      <c r="M29" s="137" t="str">
         <f>Data!U25</f>
         <v>SS</v>
       </c>
-      <c r="N29" s="138" t="str">
+      <c r="N29" s="137" t="str">
         <f>Data!V25</f>
         <v>df</v>
       </c>
-      <c r="O29" s="138" t="str">
+      <c r="O29" s="137" t="str">
         <f>Data!W25</f>
         <v>MS</v>
       </c>
-      <c r="P29" s="138" t="str">
+      <c r="P29" s="137" t="str">
         <f>Data!X25</f>
         <v>F</v>
       </c>
-      <c r="Q29" s="138" t="str">
+      <c r="Q29" s="137" t="str">
         <f>Data!Y25</f>
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>5.15</v>
       </c>
@@ -5479,44 +5471,44 @@
         <f>IF(C11="",NA(),C11)</f>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="136"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="6" t="e">
         <f>IF(C11="",NA(),C11)</f>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="136">
+      <c r="G30" s="135">
         <v>5</v>
       </c>
-      <c r="H30" s="136">
+      <c r="H30" s="135">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="K30" s="139" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140" t="str">
+      <c r="K30" s="138" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139" t="str">
         <f>IF(Data!U26&gt;0,Data!U26,"")</f>
         <v/>
       </c>
-      <c r="N30" s="141" t="str">
+      <c r="N30" s="140" t="str">
         <f>IF(Data!V26&gt;0,Data!V26,"")</f>
         <v/>
       </c>
-      <c r="O30" s="140" t="str">
+      <c r="O30" s="139" t="str">
         <f>Data!W26</f>
         <v/>
       </c>
-      <c r="P30" s="140" t="str">
+      <c r="P30" s="139" t="str">
         <f>Data!X26</f>
         <v/>
       </c>
-      <c r="Q30" s="140" t="str">
+      <c r="Q30" s="139" t="str">
         <f>Data!Y26</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>5.15</v>
@@ -5525,65 +5517,65 @@
         <f>IF(E11="",NA(),E11)</f>
         <v>#N/A</v>
       </c>
-      <c r="D31" s="136"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="7" t="e">
         <f>IF(G11="",NA(),G11)</f>
         <v>#N/A</v>
       </c>
-      <c r="G31" s="136">
+      <c r="G31" s="135">
         <v>5.5</v>
       </c>
-      <c r="H31" s="136">
+      <c r="H31" s="135">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="K31" s="142" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143" t="str">
+      <c r="K31" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142" t="str">
         <f>IF(Data!U27&gt;0,Data!U27,"")</f>
         <v/>
       </c>
-      <c r="N31" s="144" t="str">
+      <c r="N31" s="143" t="str">
         <f>IF(Data!V27&gt;0,Data!V27,"")</f>
         <v/>
       </c>
-      <c r="O31" s="131" t="str">
+      <c r="O31" s="130" t="str">
         <f>Data!W27</f>
         <v/>
       </c>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="143"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P31" s="130"/>
+      <c r="Q31" s="142"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
-      <c r="K32" s="145" t="str">
+      <c r="K32" s="144" t="str">
         <f>Data!T28</f>
         <v>Total</v>
       </c>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146" t="str">
+      <c r="L32" s="145"/>
+      <c r="M32" s="145" t="str">
         <f>Data!U28</f>
         <v/>
       </c>
-      <c r="N32" s="147" t="str">
+      <c r="N32" s="146" t="str">
         <f>IF(Data!V28&gt;0,Data!V28,"")</f>
         <v/>
       </c>
-      <c r="O32" s="146" t="str">
+      <c r="O32" s="145" t="str">
         <f>Data!W28</f>
         <v/>
       </c>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -5592,7 +5584,7 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -5601,7 +5593,7 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -5610,7 +5602,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -5619,7 +5611,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -5628,7 +5620,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
@@ -5637,7 +5629,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -5646,7 +5638,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -5655,7 +5647,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -5664,7 +5656,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -5673,7 +5665,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -5682,7 +5674,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -5691,7 +5683,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -5700,7 +5692,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -5709,7 +5701,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -5718,7 +5710,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -5727,7 +5719,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -5736,7 +5728,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -5745,7 +5737,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -5754,7 +5746,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -5763,7 +5755,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -5772,7 +5764,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5781,7 +5773,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5790,7 +5782,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5799,7 +5791,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5808,7 +5800,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5817,7 +5809,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5826,7 +5818,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5835,7 +5827,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5844,7 +5836,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5853,7 +5845,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5862,7 +5854,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5871,7 +5863,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5880,7 +5872,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5889,7 +5881,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5898,7 +5890,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -5907,7 +5899,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5916,7 +5908,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5925,7 +5917,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -5934,7 +5926,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>

--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06968354-CC1C-44F5-802A-7AB1017368F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86329547-24AF-4D19-AB8B-120F21A5D206}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="450" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>Group</t>
   </si>
@@ -314,9 +316,6 @@
     <t>ARISE: Arelational and Relational Interval Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>This module uses raw data as input.</t>
   </si>
   <si>
@@ -329,19 +328,19 @@
     <t>This workbook also provides null hypothesis significance tests for pairwise comparisons.</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/ARISE</t>
-  </si>
-  <si>
     <t>How to Cite</t>
   </si>
   <si>
-    <t>Retrieved from https://github.com/cwendorf/BASE/tree/master/ARISE</t>
-  </si>
-  <si>
     <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
+  </si>
+  <si>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/ARISE</t>
   </si>
 </sst>
 </file>
@@ -1171,6 +1170,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1178,37 +1180,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1229,18 +1251,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1249,17 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3117,17 +3116,17 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K32"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="9" max="10" width="4.5703125" customWidth="1"/>
-    <col min="18" max="19" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" customWidth="1"/>
+    <col min="9" max="10" width="4.578125" customWidth="1"/>
+    <col min="18" max="19" width="4.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="105"/>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -3137,75 +3136,75 @@
       <c r="G1" s="106"/>
       <c r="H1" s="106"/>
     </row>
-    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="148" t="s">
+    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="108"/>
       <c r="J2" s="108"/>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-    </row>
-    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+    </row>
+    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="105"/>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="169" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-    </row>
-    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+    </row>
+    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="111"/>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-    </row>
-    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+    </row>
+    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="105"/>
       <c r="B5" s="106"/>
       <c r="C5" s="106"/>
@@ -3215,7 +3214,7 @@
       <c r="G5" s="106"/>
       <c r="H5" s="106"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="28" t="s">
         <v>73</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="109"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3244,7 +3243,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="109"/>
       <c r="B8" s="1" t="s">
         <v>80</v>
@@ -3261,7 +3260,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="109"/>
       <c r="B9" s="1" t="s">
         <v>81</v>
@@ -3278,7 +3277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="109"/>
       <c r="B10" s="1" t="s">
         <v>82</v>
@@ -3295,7 +3294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="109"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3304,7 +3303,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="109"/>
       <c r="B12" s="28" t="s">
         <v>79</v>
@@ -3319,7 +3318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="109"/>
       <c r="B13" s="33"/>
       <c r="E13" s="33"/>
@@ -3328,10 +3327,10 @@
       <c r="H13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="109"/>
       <c r="B14" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3341,10 +3340,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="109"/>
       <c r="B15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -3354,10 +3353,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="109"/>
       <c r="B16" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -3368,9 +3367,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3382,7 +3381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="109"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -3394,7 +3393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="109"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -3402,7 +3401,7 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="109"/>
       <c r="B20" s="28" t="s">
         <v>63</v>
@@ -3417,7 +3416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="109"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -3428,7 +3427,7 @@
       <c r="H21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="109"/>
       <c r="B22" s="33" t="s">
         <v>37</v>
@@ -3445,7 +3444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="109"/>
       <c r="B23" s="33" t="s">
         <v>34</v>
@@ -3462,7 +3461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="33" t="s">
         <v>31</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="109"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -3487,16 +3486,16 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="K25" s="122" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="109"/>
       <c r="K26" s="122" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="109"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -3505,7 +3504,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="109"/>
       <c r="B28" s="28" t="s">
         <v>29</v>
@@ -3517,10 +3516,10 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="K28" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="109"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -3531,7 +3530,7 @@
       <c r="H29" s="33"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="33" t="s">
         <v>28</v>
       </c>
@@ -3545,21 +3544,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="33"/>
       <c r="K31" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="33" t="s">
         <v>25</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3593,22 +3592,22 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="38" customWidth="1"/>
-    <col min="2" max="8" width="11.28515625" style="38"/>
-    <col min="9" max="10" width="4.7109375" style="38" customWidth="1"/>
-    <col min="11" max="13" width="11.28515625" style="39"/>
-    <col min="14" max="17" width="11.28515625" style="38"/>
-    <col min="18" max="18" width="4.7109375" style="38" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.68359375" style="38" customWidth="1"/>
+    <col min="2" max="8" width="11.26171875" style="38"/>
+    <col min="9" max="10" width="4.68359375" style="38" customWidth="1"/>
+    <col min="11" max="13" width="11.26171875" style="39"/>
+    <col min="14" max="17" width="11.26171875" style="38"/>
+    <col min="18" max="18" width="4.68359375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="4.68359375" style="38" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" style="38" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" style="38" customWidth="1"/>
-    <col min="29" max="16384" width="11.28515625" style="38"/>
+    <col min="27" max="27" width="4.68359375" style="38" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.68359375" style="38" customWidth="1"/>
+    <col min="29" max="16384" width="11.26171875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" s="90"/>
       <c r="L1" s="89"/>
       <c r="M1" s="89"/>
@@ -3617,36 +3616,36 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="K2" s="150" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="K2" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="T2" s="150" t="s">
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="T2" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -3662,7 +3661,7 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="72" t="s">
         <v>53</v>
       </c>
@@ -3687,7 +3686,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -3706,7 +3705,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="61" t="s">
         <v>50</v>
       </c>
@@ -3745,14 +3744,14 @@
       <c r="Y6" s="87"/>
       <c r="Z6" s="87"/>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="S7" s="2"/>
@@ -3778,14 +3777,14 @@
       <c r="Y7" s="85"/>
       <c r="Z7" s="85"/>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
       <c r="S8" s="2"/>
       <c r="T8" s="81">
         <v>2</v>
@@ -3809,7 +3808,7 @@
       <c r="Y8" s="78"/>
       <c r="Z8" s="78"/>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
@@ -3840,7 +3839,7 @@
       <c r="Y9" s="78"/>
       <c r="Z9" s="78"/>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="82" t="s">
         <v>48</v>
       </c>
@@ -3873,14 +3872,14 @@
       <c r="Y10" s="78"/>
       <c r="Z10" s="78"/>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
       <c r="S11" s="2"/>
       <c r="T11" s="81">
         <v>5</v>
@@ -3904,14 +3903,14 @@
       <c r="Y11" s="78"/>
       <c r="Z11" s="78"/>
     </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
       <c r="T12" s="20" t="s">
         <v>22</v>
       </c>
@@ -3934,14 +3933,14 @@
       <c r="Y12" s="76"/>
       <c r="Z12" s="76"/>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
       <c r="S13" s="2"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
@@ -3951,20 +3950,20 @@
       <c r="Y13" s="75"/>
       <c r="Z13" s="75"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
       <c r="S14" s="2"/>
       <c r="T14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
@@ -3980,7 +3979,7 @@
       <c r="Y15" s="68"/>
       <c r="Z15" s="67"/>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B16" s="72" t="s">
         <v>47</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="69"/>
@@ -4029,11 +4028,11 @@
       <c r="Y17" s="64"/>
       <c r="Z17" s="63"/>
     </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="166" t="s">
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="166"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="66" t="s">
         <v>43</v>
       </c>
@@ -4053,13 +4052,13 @@
       <c r="Y18" s="59"/>
       <c r="Z18" s="55"/>
     </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="165"/>
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="58"/>
       <c r="S19" s="2"/>
       <c r="T19" s="81"/>
@@ -4072,13 +4071,13 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="55"/>
     </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="157"/>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="163"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="50"/>
       <c r="S20" s="2"/>
       <c r="T20" s="81"/>
@@ -4091,7 +4090,7 @@
       </c>
       <c r="Z20" s="55"/>
     </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
@@ -4110,12 +4109,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="166" t="str">
+    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="169" t="str">
         <f>IF(B19="","Factor",B19)</f>
         <v>Factor</v>
       </c>
-      <c r="C22" s="166"/>
+      <c r="C22" s="169"/>
       <c r="D22" s="61" t="s">
         <v>43</v>
       </c>
@@ -4134,13 +4133,13 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="163"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="165"/>
+    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="159"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="160"/>
       <c r="H23" s="58" t="str">
         <f>IF(B23="","",1)</f>
         <v/>
@@ -4156,13 +4155,13 @@
       <c r="Y23" s="46"/>
       <c r="Z23" s="29"/>
     </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153"/>
+    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="155"/>
       <c r="H24" s="52" t="str">
         <f>IF(B24="","",2)</f>
         <v/>
@@ -4176,13 +4175,13 @@
       <c r="Y24" s="46"/>
       <c r="Z24" s="29"/>
     </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="152"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="153"/>
+    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="155"/>
       <c r="H25" s="52" t="str">
         <f>IF(B25="","",3)</f>
         <v/>
@@ -4210,13 +4209,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="153"/>
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="51" t="str">
         <f>IF(B26="","",4)</f>
         <v/>
@@ -4249,13 +4248,13 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="157"/>
+    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="158"/>
       <c r="H27" s="50" t="str">
         <f>IF(B27="","",5)</f>
         <v/>
@@ -4280,7 +4279,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -4308,7 +4307,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="31"/>
     </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T29" s="30"/>
       <c r="U29" s="30"/>
       <c r="V29" s="30"/>
@@ -4317,35 +4316,26 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="M34" s="40"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="S35" s="29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -4358,6 +4348,15 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4375,37 +4374,37 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="123" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="123"/>
-    <col min="9" max="10" width="4.5703125" style="123" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="123"/>
-    <col min="18" max="19" width="4.5703125" style="123" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="123"/>
+    <col min="1" max="1" width="4.578125" style="123" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="123"/>
+    <col min="9" max="10" width="4.578125" style="123" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="123"/>
+    <col min="18" max="19" width="4.578125" style="123" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="123"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="168" t="s">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="K2" s="168" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="K2" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-    </row>
-    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+    </row>
+    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="124" t="s">
         <v>77</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="P4" s="123"/>
       <c r="Q4" s="123"/>
     </row>
-    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="123"/>
       <c r="C5" s="123"/>
       <c r="D5" s="123"/>
@@ -4443,7 +4442,7 @@
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
     </row>
-    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="127" t="s">
         <v>0</v>
       </c>
@@ -4453,14 +4452,14 @@
       <c r="D6" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167" t="s">
+      <c r="F6" s="170"/>
+      <c r="G6" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="167"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="123"/>
       <c r="J6" s="123"/>
       <c r="K6" s="128" t="s">
@@ -4485,7 +4484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="129" t="str">
         <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
         <v/>
@@ -4542,7 +4541,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="133" t="str">
         <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
         <v/>
@@ -4599,7 +4598,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="133" t="str">
         <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
         <v/>
@@ -4656,7 +4655,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="133" t="str">
         <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
         <v/>
@@ -4713,7 +4712,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="147" t="str">
         <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
         <v/>
@@ -4770,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="123"/>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -4788,7 +4787,7 @@
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
     </row>
-    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="124" t="s">
         <v>78</v>
       </c>
@@ -4810,7 +4809,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="123"/>
       <c r="C14" s="123"/>
       <c r="D14" s="123"/>
@@ -4828,7 +4827,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="7">
         <v>2.15</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7">
         <v>2.15</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="7">
         <v>2.15</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="7">
         <v>3.15</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="7">
         <v>3.15</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="7">
         <v>3.15</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="7">
         <v>4.1500000000000004</v>
       </c>
@@ -5370,7 +5369,7 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B27" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="6">
         <v>5.15</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="6">
         <v>5.15</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>5.15</v>
@@ -5548,7 +5547,7 @@
       <c r="P31" s="130"/>
       <c r="Q31" s="142"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
@@ -5572,10 +5571,10 @@
       <c r="P32" s="145"/>
       <c r="Q32" s="145"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -5584,7 +5583,7 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -5593,7 +5592,7 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -5602,7 +5601,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -5611,7 +5610,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -5620,7 +5619,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
@@ -5629,7 +5628,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -5638,7 +5637,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -5647,7 +5646,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -5656,7 +5655,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -5665,7 +5664,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -5674,7 +5673,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -5683,7 +5682,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -5692,7 +5691,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -5701,7 +5700,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -5710,7 +5709,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -5719,7 +5718,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -5728,7 +5727,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -5737,7 +5736,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -5746,7 +5745,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -5755,7 +5754,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="15"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -5764,7 +5763,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5773,7 +5772,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5782,7 +5781,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5791,7 +5790,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5800,7 +5799,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5809,7 +5808,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5818,7 +5817,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5827,7 +5826,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5836,7 +5835,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5845,7 +5844,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5854,7 +5853,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5863,7 +5862,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5872,7 +5871,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5881,7 +5880,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5890,7 +5889,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -5899,7 +5898,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5908,7 +5907,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5917,7 +5916,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -5926,7 +5925,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>

--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86329547-24AF-4D19-AB8B-120F21A5D206}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BB2FFD7-0024-4CDD-9EC1-37AAA2CFAD96}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <t>Estimation Approach</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/pych/cw</t>
-  </si>
-  <si>
     <t>For Hypothesis Tests and Confidence Intervals</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/ARISE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1188,18 +1188,25 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1212,43 +1219,36 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3116,7 +3116,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="149" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="149"/>
       <c r="D2" s="149"/>
@@ -3172,7 +3172,7 @@
       <c r="I3" s="148"/>
       <c r="J3" s="148"/>
       <c r="K3" s="151" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="151"/>
       <c r="M3" s="151"/>
@@ -3195,7 +3195,7 @@
       <c r="I4" s="148"/>
       <c r="J4" s="148"/>
       <c r="K4" s="152" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L4" s="151"/>
       <c r="M4" s="151"/>
@@ -3227,7 +3227,7 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3257,7 +3257,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3274,7 +3274,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3291,7 +3291,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3330,7 +3330,7 @@
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="109"/>
       <c r="B14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3343,7 +3343,7 @@
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="109"/>
       <c r="B15" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -3356,7 +3356,7 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="109"/>
       <c r="B16" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3486,13 +3486,13 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="K25" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="109"/>
       <c r="K26" s="122" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3516,7 +3516,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="K28" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C31" s="33"/>
       <c r="K31" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3558,7 +3558,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3617,33 +3617,33 @@
       <c r="W1"/>
     </row>
     <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="K2" s="162" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="K2" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="T2" s="162" t="s">
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="T2" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K3" s="35"/>
@@ -3745,13 +3745,13 @@
       <c r="Z6" s="87"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="S7" s="2"/>
@@ -3778,13 +3778,13 @@
       <c r="Z7" s="85"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
       <c r="S8" s="2"/>
       <c r="T8" s="81">
         <v>2</v>
@@ -3873,13 +3873,13 @@
       <c r="Z10" s="78"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
       <c r="S11" s="2"/>
       <c r="T11" s="81">
         <v>5</v>
@@ -3904,13 +3904,13 @@
       <c r="Z11" s="78"/>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
       <c r="T12" s="20" t="s">
         <v>22</v>
       </c>
@@ -3934,13 +3934,13 @@
       <c r="Z12" s="76"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
       <c r="S13" s="2"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
@@ -3951,13 +3951,13 @@
       <c r="Z13" s="75"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
       <c r="S14" s="2"/>
       <c r="T14" s="5" t="s">
         <v>46</v>
@@ -4053,12 +4053,12 @@
       <c r="Z18" s="55"/>
     </row>
     <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="168"/>
       <c r="H19" s="58"/>
       <c r="S19" s="2"/>
       <c r="T19" s="81"/>
@@ -4072,12 +4072,12 @@
       <c r="Z19" s="55"/>
     </row>
     <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="163"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="158"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="160"/>
       <c r="H20" s="50"/>
       <c r="S20" s="2"/>
       <c r="T20" s="81"/>
@@ -4134,12 +4134,12 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="58" t="str">
         <f>IF(B23="","",1)</f>
         <v/>
@@ -4156,12 +4156,12 @@
       <c r="Z23" s="29"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
       <c r="D24" s="154"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="156"/>
       <c r="H24" s="52" t="str">
         <f>IF(B24="","",2)</f>
         <v/>
@@ -4176,12 +4176,12 @@
       <c r="Z24" s="29"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="154"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="156"/>
       <c r="H25" s="52" t="str">
         <f>IF(B25="","",3)</f>
         <v/>
@@ -4210,12 +4210,12 @@
       </c>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
       <c r="D26" s="154"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="156"/>
       <c r="H26" s="51" t="str">
         <f>IF(B26="","",4)</f>
         <v/>
@@ -4249,12 +4249,12 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="158"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="160"/>
       <c r="H27" s="50" t="str">
         <f>IF(B27="","",5)</f>
         <v/>
@@ -4336,6 +4336,15 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -4348,15 +4357,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2BB2FFD7-0024-4CDD-9EC1-37AAA2CFAD96}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B98294-0A16-4D77-B899-8D7A26436669}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Graphs can be copied and pasted into other documents.</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2016).</t>
-  </si>
-  <si>
     <t>For all tabs, only information in yellow cells should be altered.</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2020).</t>
   </si>
 </sst>
 </file>
@@ -732,98 +732,88 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -840,228 +830,170 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1070,21 +1002,10 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1099,88 +1020,79 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1188,37 +1100,46 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1231,7 +1152,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1239,25 +1160,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2724,7 +2630,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Theory"/>
@@ -2741,7 +2647,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Intro"/>
@@ -2770,7 +2676,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Intro"/>
@@ -3115,123 +3021,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.578125" customWidth="1"/>
-    <col min="9" max="10" width="4.578125" customWidth="1"/>
-    <col min="18" max="19" width="4.578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="9" max="10" width="4.5546875" customWidth="1"/>
+    <col min="18" max="19" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="105"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-    </row>
-    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="149" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="150" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-    </row>
-    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="105"/>
-      <c r="B3" s="151" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="151" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+    </row>
+    <row r="4" spans="1:17" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85"/>
+      <c r="B4" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-    </row>
-    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="111"/>
-      <c r="B4" s="151" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-    </row>
-    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="109"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3243,10 +3149,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="109"/>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3256,14 +3162,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="109"/>
+      <c r="K8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3273,14 +3179,14 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="109"/>
+      <c r="K9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3290,275 +3196,275 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="109"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="109"/>
-      <c r="B12" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="K12" s="28" t="s">
+      <c r="K10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="K12" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="K14" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="109"/>
-      <c r="B13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="109"/>
-      <c r="B14" s="33" t="s">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="K15" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="K14" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="109"/>
-      <c r="B15" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="K15" s="16" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="K16" s="84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="109"/>
-      <c r="B16" s="33" t="s">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="K16" s="110" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="K17" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="33" t="s">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="K18" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="K20" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="K22" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="K23" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="K24" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="K25" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="K26" s="93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="K28" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="K17" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="109"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="K18" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="109"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="109"/>
-      <c r="B20" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="K20" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="109"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="109"/>
-      <c r="B22" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="K22" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="109"/>
-      <c r="B23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="K23" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="K24" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="109"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="K25" s="122" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="109"/>
-      <c r="K26" s="122" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="K30" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="109"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="109"/>
-      <c r="B28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="K28" s="28" t="s">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="K31" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="109"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="K30" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="K31" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="33" t="s">
-        <v>97</v>
+      <c r="K32" s="27" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3592,759 +3498,708 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" style="38" customWidth="1"/>
-    <col min="2" max="8" width="11.26171875" style="38"/>
-    <col min="9" max="10" width="4.68359375" style="38" customWidth="1"/>
-    <col min="11" max="13" width="11.26171875" style="39"/>
-    <col min="14" max="17" width="11.26171875" style="38"/>
-    <col min="18" max="18" width="4.68359375" style="38" customWidth="1"/>
-    <col min="19" max="19" width="4.68359375" style="38" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.68359375" style="38" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.68359375" style="38" customWidth="1"/>
-    <col min="29" max="16384" width="11.26171875" style="38"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="9" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="13" width="11.21875" style="31"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="K2" s="153" t="s">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="60"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="T2" s="153" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="K2" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="T2" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-    </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="K4" s="72" t="s">
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="T4" s="5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="K4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="61" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="T4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="K6" s="88" t="s">
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+    </row>
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="88" t="str">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="K6" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="72" t="str">
         <f>IF(B19="","",B19)</f>
         <v/>
       </c>
-      <c r="M6" s="88" t="str">
+      <c r="M6" s="72" t="str">
         <f>IF(B20="","",B20)</f>
         <v/>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="23" t="s">
+      <c r="W6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="17">
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="T7" s="13">
         <v>1</v>
       </c>
-      <c r="U7" s="19" t="str">
+      <c r="U7" s="15" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T7),"")</f>
         <v/>
       </c>
-      <c r="V7" s="19" t="str">
+      <c r="V7" s="15" t="str">
         <f t="array" ref="V7">IFERROR(STDEV(IF($L:$L=$T7,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W7" s="86" t="str">
+      <c r="W7" s="70" t="str">
         <f>IF(COUNTIF($L:$L,$T7)&lt;1,"",COUNTIF($L:$L,$T7))</f>
         <v/>
       </c>
-      <c r="X7" s="18" t="str">
+      <c r="X7" s="14" t="str">
         <f t="shared" ref="X7:X12" si="0">IFERROR(V7/SQRT(W7),"")</f>
         <v/>
       </c>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="81">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="T8" s="49">
         <v>2</v>
       </c>
-      <c r="U8" s="79" t="str">
+      <c r="U8" s="65" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T8),"")</f>
         <v/>
       </c>
-      <c r="V8" s="79" t="str">
+      <c r="V8" s="65" t="str">
         <f t="array" ref="V8">IFERROR(STDEV(IF($L:$L=$T8,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W8" s="80" t="str">
+      <c r="W8" s="9" t="str">
         <f>IF(COUNTIF($L:$L,$T8)&lt;1,"",COUNTIF($L:$L,$T8))</f>
         <v/>
       </c>
-      <c r="X8" s="56" t="str">
+      <c r="X8" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-    </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="81">
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+    </row>
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="T9" s="49">
         <v>3</v>
       </c>
-      <c r="U9" s="79" t="str">
+      <c r="U9" s="65" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T9),"")</f>
         <v/>
       </c>
-      <c r="V9" s="79" t="str">
+      <c r="V9" s="65" t="str">
         <f t="array" ref="V9">IFERROR(STDEV(IF($L:$L=$T9,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W9" s="80" t="str">
+      <c r="W9" s="9" t="str">
         <f>IF(COUNTIF($L:$L,$T9)&lt;1,"",COUNTIF($L:$L,$T9))</f>
         <v/>
       </c>
-      <c r="X9" s="56" t="str">
+      <c r="X9" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-    </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="81">
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="T10" s="49">
         <v>4</v>
       </c>
-      <c r="U10" s="79" t="str">
+      <c r="U10" s="65" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T10),"")</f>
         <v/>
       </c>
-      <c r="V10" s="79" t="str">
+      <c r="V10" s="65" t="str">
         <f t="array" ref="V10">IFERROR(STDEV(IF($L:$L=$T10,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W10" s="80" t="str">
+      <c r="W10" s="9" t="str">
         <f>IF(COUNTIF($L:$L,$T10)&lt;1,"",COUNTIF($L:$L,$T10))</f>
         <v/>
       </c>
-      <c r="X10" s="56" t="str">
+      <c r="X10" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="81">
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="T11" s="49">
         <v>5</v>
       </c>
-      <c r="U11" s="79" t="str">
+      <c r="U11" s="65" t="str">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T11),"")</f>
         <v/>
       </c>
-      <c r="V11" s="79" t="str">
+      <c r="V11" s="65" t="str">
         <f t="array" ref="V11">IFERROR(STDEV(IF($L:$L=$T11,$M:$M)),"")</f>
         <v/>
       </c>
-      <c r="W11" s="80" t="str">
+      <c r="W11" s="9" t="str">
         <f>IF(COUNTIF($L:$L,$T11)&lt;1,"",COUNTIF($L:$L,$T11))</f>
         <v/>
       </c>
-      <c r="X11" s="56" t="str">
+      <c r="X11" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-    </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="T12" s="20" t="s">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+    </row>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="T12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="22" t="str">
+      <c r="U12" s="18" t="str">
         <f>IFERROR(AVERAGE($M:$M),"")</f>
         <v/>
       </c>
-      <c r="V12" s="22" t="str">
+      <c r="V12" s="18" t="str">
         <f>IFERROR(STDEV($M:$M),"")</f>
         <v/>
       </c>
-      <c r="W12" s="77">
+      <c r="W12" s="63">
         <f>IFERROR(COUNT($L:$L),"")</f>
         <v>0</v>
       </c>
-      <c r="X12" s="21" t="str">
+      <c r="X12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-    </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="5" t="s">
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="T14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="59"/>
+    </row>
+    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="67"/>
-    </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B16" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="71"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="23" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="61"/>
+      <c r="T16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19">
+        <v>1</v>
+      </c>
+      <c r="W16" s="19">
+        <v>2</v>
+      </c>
+      <c r="X16" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="37">
+        <v>1</v>
+      </c>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="55"/>
+    </row>
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23">
+      <c r="C18" s="136"/>
+      <c r="D18" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48">
         <v>1</v>
       </c>
-      <c r="W16" s="23">
-        <v>2</v>
-      </c>
-      <c r="X16" s="23">
-        <v>3</v>
-      </c>
-      <c r="Y16" s="23">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="45">
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="47"/>
+    </row>
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="50"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48">
         <v>1</v>
       </c>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="63"/>
-    </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="169" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="T18" s="81"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56">
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="47"/>
+    </row>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="130"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="42"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48">
         <v>1</v>
       </c>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="55"/>
-    </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="58"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56">
+      <c r="Z20" s="47"/>
+    </row>
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45">
         <v>1</v>
       </c>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="55"/>
-    </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="50"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="55"/>
-    </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="169" t="str">
+    </row>
+    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="136" t="str">
         <f>IF(B19="","Factor",B19)</f>
         <v>Factor</v>
       </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60" t="s">
+      <c r="C22" s="136"/>
+      <c r="D22" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-    </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="166"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="58" t="str">
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+    </row>
+    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="50" t="str">
         <f>IF(B23="","",1)</f>
         <v/>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="29"/>
-    </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="52" t="str">
+      <c r="T23" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="44" t="str">
         <f>IF(B24="","",2)</f>
         <v/>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="29"/>
-    </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="52" t="str">
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="44" t="str">
         <f>IF(B25="","",3)</f>
         <v/>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="26" t="s">
+      <c r="T25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="26" t="s">
+      <c r="U25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="V25" s="26" t="s">
+      <c r="V25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="26" t="s">
+      <c r="W25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="X25" s="26" t="s">
+      <c r="X25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y25" s="26" t="s">
+      <c r="Y25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z25" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="51" t="str">
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="43" t="str">
         <f>IF(B26="","",4)</f>
         <v/>
       </c>
-      <c r="T26" s="117" t="s">
+      <c r="T26" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="45" t="str">
+      <c r="U26" s="37" t="str">
         <f t="array" ref="U26">IFERROR(DEVSQ(U7:U11)*(W7:W11),"")</f>
         <v/>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="36">
         <f>IFERROR(COUNT(W7:W11)-1,"")</f>
         <v>-1</v>
       </c>
-      <c r="W26" s="43" t="str">
+      <c r="W26" s="35" t="str">
         <f>IFERROR(U26/V26,"")</f>
         <v/>
       </c>
-      <c r="X26" s="43" t="str">
+      <c r="X26" s="35" t="str">
         <f>IFERROR(W26/W27,"")</f>
         <v/>
       </c>
-      <c r="Y26" s="43" t="str">
+      <c r="Y26" s="35" t="str">
         <f>IFERROR(IF(FDIST(X26,V26,V27)&lt;0.001,"&lt; 0.001",FDIST(X26,V26,V27)),"")</f>
         <v/>
       </c>
-      <c r="Z26" s="32" t="str">
+      <c r="Z26" s="26" t="str">
         <f>IFERROR(U26/U28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="50" t="str">
+    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="42" t="str">
         <f>IF(B27="","",5)</f>
         <v/>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="118" t="s">
+      <c r="T27" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="5">
         <f t="array" ref="U27">SUM(IF(W7:W11&lt;&gt;"",V7:V11^2*((W7:W11)-1),0))</f>
         <v>0</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="6">
         <f t="array" ref="V27">SUM(IF(W7:W11&lt;&gt;"",W7:W11-1))</f>
         <v>0</v>
       </c>
-      <c r="W27" s="10" t="str">
+      <c r="W27" s="7" t="str">
         <f>IFERROR(U27/V27,"")</f>
         <v/>
       </c>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="12"/>
-    </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="119" t="s">
+      <c r="X27" s="5"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="9"/>
+    </row>
+    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="T28" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="U28" s="41" t="str">
+      <c r="U28" s="33" t="str">
         <f>IFERROR((V12^2)*(W12-1),"")</f>
         <v/>
       </c>
-      <c r="V28" s="42">
+      <c r="V28" s="34">
         <f>W12-1</f>
         <v>-1</v>
       </c>
-      <c r="W28" s="41" t="str">
+      <c r="W28" s="33" t="str">
         <f>IFERROR(U28/V28,"")</f>
         <v/>
       </c>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-    </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="S31" s="29"/>
-    </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="S32" s="29"/>
-    </row>
-    <row r="33" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="S33" s="29"/>
-    </row>
-    <row r="34" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M34" s="40"/>
-      <c r="S34" s="29"/>
-    </row>
-    <row r="35" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="S35" s="29"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="25"/>
+    </row>
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+    </row>
+    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="32"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="13:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -4357,6 +4212,15 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4374,1565 +4238,1565 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="123" customWidth="1"/>
-    <col min="2" max="8" width="11.15625" style="123"/>
-    <col min="9" max="10" width="4.578125" style="123" customWidth="1"/>
-    <col min="11" max="17" width="11.15625" style="123"/>
-    <col min="18" max="19" width="4.578125" style="123" customWidth="1"/>
-    <col min="20" max="16384" width="11.15625" style="123"/>
+    <col min="1" max="1" width="4.5546875" style="94" customWidth="1"/>
+    <col min="2" max="8" width="11.109375" style="94"/>
+    <col min="9" max="10" width="4.5546875" style="94" customWidth="1"/>
+    <col min="11" max="17" width="11.109375" style="94"/>
+    <col min="18" max="19" width="4.5546875" style="94" customWidth="1"/>
+    <col min="20" max="16384" width="11.109375" style="94"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="171" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="K2" s="171" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-    </row>
-    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="124" t="s">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="K2" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+    </row>
+    <row r="4" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="96"/>
+      <c r="G4" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="92">
+        <v>95</v>
+      </c>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+    </row>
+    <row r="5" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+    </row>
+    <row r="6" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="137"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="100" t="str">
+        <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
+        <v/>
+      </c>
+      <c r="C7" s="101" t="str">
+        <f>IFERROR(Data!U7,"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="101" t="str">
+        <f>IF(C7="","",Data!V7)</f>
+        <v/>
+      </c>
+      <c r="E7" s="102" t="str">
+        <f>IFERROR(C7-TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="102" t="str">
+        <f>IFERROR(C7+TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
+        <v/>
+      </c>
+      <c r="G7" s="103" t="str">
+        <f>IFERROR(C7-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="103" t="str">
+        <f>IFERROR(C7+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="104" t="str">
+        <f t="shared" ref="K7:K11" si="0">B7</f>
+        <v/>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="101" t="str">
+        <f>IFERROR(C7-L7,"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="75" t="str">
+        <f>IFERROR(Data!W7-1,"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="101" t="str">
+        <f>IFERROR(Data!X7,"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="101" t="str">
+        <f>IFERROR(M7/O7,"")</f>
+        <v/>
+      </c>
+      <c r="Q7" s="101" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P7),N7,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P7),N7,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="104" t="str">
+        <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
+        <v/>
+      </c>
+      <c r="C8" s="101" t="str">
+        <f>IFERROR(Data!U8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="101" t="str">
+        <f>IF(C8="","",Data!V8)</f>
+        <v/>
+      </c>
+      <c r="E8" s="101" t="str">
+        <f>IFERROR(C8-TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="101" t="str">
+        <f>IFERROR(C8+TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="101" t="str">
+        <f>IFERROR(C8-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="101" t="str">
+        <f>IFERROR(C8+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="101" t="str">
+        <f>IFERROR(C8-L8,"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="75" t="str">
+        <f>IFERROR(Data!W8-1,"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="101" t="str">
+        <f>IFERROR(Data!X8,"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="101" t="str">
+        <f>IFERROR(M8/O8,"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="101" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P8),N8,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P8),N8,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="104" t="str">
+        <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
+        <v/>
+      </c>
+      <c r="C9" s="101" t="str">
+        <f>IFERROR(Data!U9,"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="101" t="str">
+        <f>IF(C9="","",Data!V9)</f>
+        <v/>
+      </c>
+      <c r="E9" s="101" t="str">
+        <f>IFERROR(C9-TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="101" t="str">
+        <f>IFERROR(C9+TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="101" t="str">
+        <f>IFERROR(C9-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="101" t="str">
+        <f>IFERROR(C9+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="M9" s="101" t="str">
+        <f>IFERROR(C9-L9,"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="75" t="str">
+        <f>IFERROR(Data!W9-1,"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="101" t="str">
+        <f>IFERROR(Data!X9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="101" t="str">
+        <f>IFERROR(M9/O9,"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="101" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P9),N9,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P9),N9,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="104" t="str">
+        <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
+        <v/>
+      </c>
+      <c r="C10" s="101" t="str">
+        <f>IFERROR(Data!U10,"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="101" t="str">
+        <f>IF(C10="","",Data!V10)</f>
+        <v/>
+      </c>
+      <c r="E10" s="101" t="str">
+        <f>IFERROR(C10-TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="101" t="str">
+        <f>IFERROR(C10+TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="101" t="str">
+        <f>IFERROR(C10-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="101" t="str">
+        <f>IFERROR(C10+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="M10" s="101" t="str">
+        <f>IFERROR(C10-L10,"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="75" t="str">
+        <f>IFERROR(Data!W10-1,"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="101" t="str">
+        <f>IFERROR(Data!X10,"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="101" t="str">
+        <f>IFERROR(M10/O10,"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="101" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P10),N10,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P10),N10,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="115" t="str">
+        <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
+        <v/>
+      </c>
+      <c r="C11" s="105" t="str">
+        <f>IFERROR(Data!U11,"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="105" t="str">
+        <f>IF(C11="","",Data!V11)</f>
+        <v/>
+      </c>
+      <c r="E11" s="105" t="str">
+        <f>IFERROR(C11-TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="105" t="str">
+        <f>IFERROR(C11+TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="105" t="str">
+        <f>IFERROR(C11-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="H11" s="105" t="str">
+        <f>IFERROR(C11+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="105" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="76"/>
+      <c r="M11" s="105" t="str">
+        <f>IFERROR(C11-L11,"")</f>
+        <v/>
+      </c>
+      <c r="N11" s="34" t="str">
+        <f>IFERROR(Data!W11-1,"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="105" t="str">
+        <f>IFERROR(Data!X11,"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="105" t="str">
+        <f>IFERROR(M11/O11,"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="105" t="str">
+        <f>IFERROR(IF(TDIST(ABS(P11),N11,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P11),N11,2)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+    </row>
+    <row r="13" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="125"/>
-      <c r="G4" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="121">
-        <v>95</v>
-      </c>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-    </row>
-    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-    </row>
-    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="127" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="170" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="170"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="128" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="128" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="129" t="str">
-        <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
-        <v/>
-      </c>
-      <c r="C7" s="130" t="str">
-        <f>IFERROR(Data!U7,"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="130" t="str">
-        <f>IF(C7="","",Data!V7)</f>
-        <v/>
-      </c>
-      <c r="E7" s="131" t="str">
-        <f>IFERROR(C7-TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="131" t="str">
-        <f>IFERROR(C7+TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="132" t="str">
-        <f>IFERROR(C7-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H7" s="132" t="str">
-        <f>IFERROR(C7+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="133" t="str">
-        <f t="shared" ref="K7:K11" si="0">B7</f>
-        <v/>
-      </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="130" t="str">
-        <f>IFERROR(C7-L7,"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="92" t="str">
-        <f>IFERROR(Data!W7-1,"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="130" t="str">
-        <f>IFERROR(Data!X7,"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="130" t="str">
-        <f>IFERROR(M7/O7,"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="130" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P7),N7,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P7),N7,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="133" t="str">
-        <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
-        <v/>
-      </c>
-      <c r="C8" s="130" t="str">
-        <f>IFERROR(Data!U8,"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="130" t="str">
-        <f>IF(C8="","",Data!V8)</f>
-        <v/>
-      </c>
-      <c r="E8" s="130" t="str">
-        <f>IFERROR(C8-TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="130" t="str">
-        <f>IFERROR(C8+TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="130" t="str">
-        <f>IFERROR(C8-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H8" s="130" t="str">
-        <f>IFERROR(C8+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="130" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="130" t="str">
-        <f>IFERROR(C8-L8,"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="92" t="str">
-        <f>IFERROR(Data!W8-1,"")</f>
-        <v/>
-      </c>
-      <c r="O8" s="130" t="str">
-        <f>IFERROR(Data!X8,"")</f>
-        <v/>
-      </c>
-      <c r="P8" s="130" t="str">
-        <f>IFERROR(M8/O8,"")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="130" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P8),N8,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P8),N8,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="133" t="str">
-        <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
-        <v/>
-      </c>
-      <c r="C9" s="130" t="str">
-        <f>IFERROR(Data!U9,"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="130" t="str">
-        <f>IF(C9="","",Data!V9)</f>
-        <v/>
-      </c>
-      <c r="E9" s="130" t="str">
-        <f>IFERROR(C9-TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="130" t="str">
-        <f>IFERROR(C9+TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="130" t="str">
-        <f>IFERROR(C9-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="130" t="str">
-        <f>IFERROR(C9+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="130" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L9" s="91"/>
-      <c r="M9" s="130" t="str">
-        <f>IFERROR(C9-L9,"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="92" t="str">
-        <f>IFERROR(Data!W9-1,"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="130" t="str">
-        <f>IFERROR(Data!X9,"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="130" t="str">
-        <f>IFERROR(M9/O9,"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="130" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P9),N9,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P9),N9,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="133" t="str">
-        <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
-        <v/>
-      </c>
-      <c r="C10" s="130" t="str">
-        <f>IFERROR(Data!U10,"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="130" t="str">
-        <f>IF(C10="","",Data!V10)</f>
-        <v/>
-      </c>
-      <c r="E10" s="130" t="str">
-        <f>IFERROR(C10-TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="130" t="str">
-        <f>IFERROR(C10+TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="130" t="str">
-        <f>IFERROR(C10-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="130" t="str">
-        <f>IFERROR(C10+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="130" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="130" t="str">
-        <f>IFERROR(C10-L10,"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="92" t="str">
-        <f>IFERROR(Data!W10-1,"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="130" t="str">
-        <f>IFERROR(Data!X10,"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="130" t="str">
-        <f>IFERROR(M10/O10,"")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="130" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P10),N10,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P10),N10,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="147" t="str">
-        <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
-        <v/>
-      </c>
-      <c r="C11" s="134" t="str">
-        <f>IFERROR(Data!U11,"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="134" t="str">
-        <f>IF(C11="","",Data!V11)</f>
-        <v/>
-      </c>
-      <c r="E11" s="134" t="str">
-        <f>IFERROR(C11-TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="134" t="str">
-        <f>IFERROR(C11+TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="134" t="str">
-        <f>IFERROR(C11-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="134" t="str">
-        <f>IFERROR(C11+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="93"/>
-      <c r="M11" s="134" t="str">
-        <f>IFERROR(C11-L11,"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="94" t="str">
-        <f>IFERROR(Data!W11-1,"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="134" t="str">
-        <f>IFERROR(Data!X11,"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="134" t="str">
-        <f>IFERROR(M11/O11,"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="134" t="str">
-        <f>IFERROR(IF(TDIST(ABS(P11),N11,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P11),N11,2)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-    </row>
-    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="113" t="str">
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="87" t="str">
         <f>IF(M16="","","1 vs. 2")</f>
         <v/>
       </c>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96" t="str">
+      <c r="L16" s="77"/>
+      <c r="M16" s="35" t="str">
         <f>IFERROR(C7-C8-L16,"")</f>
         <v/>
       </c>
-      <c r="N16" s="98" t="str">
+      <c r="N16" s="36" t="str">
         <f>IFERROR(Data!W7+Data!W8-2,"")</f>
         <v/>
       </c>
-      <c r="O16" s="96" t="str">
+      <c r="O16" s="35" t="str">
         <f>IF(M16="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P16" s="97" t="str">
+      <c r="P16" s="78" t="str">
         <f t="shared" ref="P16:P25" si="1">IFERROR(M16/O16,"")</f>
         <v/>
       </c>
-      <c r="Q16" s="131" t="str">
+      <c r="Q16" s="102" t="str">
         <f t="shared" ref="Q16:Q25" si="2">IFERROR(IF(TDIST(ABS(P16),N16,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P16),N16,2)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="7">
+    <row r="17" spans="1:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C17" s="7" t="e">
+      <c r="C17" s="4" t="e">
         <f>IF(F7="",NA(),F7)</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="e">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="e">
         <f>IF(H7="",NA(),H7)</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="6">
+      <c r="F17" s="12"/>
+      <c r="G17" s="3">
         <v>0.5</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="114" t="str">
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="88" t="str">
         <f>IF(M17="","","1 vs. 3")</f>
         <v/>
       </c>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100" t="str">
+      <c r="L17" s="79"/>
+      <c r="M17" s="5" t="str">
         <f>IFERROR(C7-C9-L17,"")</f>
         <v/>
       </c>
-      <c r="N17" s="92" t="str">
+      <c r="N17" s="75" t="str">
         <f>IFERROR(Data!W7+Data!W9-2,"")</f>
         <v/>
       </c>
-      <c r="O17" s="100" t="str">
+      <c r="O17" s="5" t="str">
         <f>IF(M17="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P17" s="101" t="str">
+      <c r="P17" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q17" s="130" t="str">
+      <c r="Q17" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="7">
+    <row r="18" spans="1:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C18" s="6" t="e">
+      <c r="C18" s="3" t="e">
         <f>IF(C7="",NA(),C7)</f>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6" t="e">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="e">
         <f>IF(C7="",NA(),C7)</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="6">
+      <c r="F18" s="12"/>
+      <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="114" t="str">
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="88" t="str">
         <f>IF(M18="","","1 vs. 4")</f>
         <v/>
       </c>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100" t="str">
+      <c r="L18" s="79"/>
+      <c r="M18" s="5" t="str">
         <f>IFERROR(C7-C10-L18,"")</f>
         <v/>
       </c>
-      <c r="N18" s="92" t="str">
+      <c r="N18" s="75" t="str">
         <f>IFERROR(Data!W7+Data!W10-2,"")</f>
         <v/>
       </c>
-      <c r="O18" s="100" t="str">
+      <c r="O18" s="5" t="str">
         <f>IF(M18="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P18" s="101" t="str">
+      <c r="P18" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q18" s="130" t="str">
+      <c r="Q18" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="7">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C19" s="7" t="e">
+      <c r="C19" s="4" t="e">
         <f>IF(E7="",NA(),E7)</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="e">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="e">
         <f>IF(G7="",NA(),G7)</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="6">
+      <c r="F19" s="12"/>
+      <c r="G19" s="3">
         <v>1.5</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="K19" s="114" t="str">
+      <c r="K19" s="88" t="str">
         <f>IF(M19="","","1 vs. 5")</f>
         <v/>
       </c>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100" t="str">
+      <c r="L19" s="79"/>
+      <c r="M19" s="5" t="str">
         <f>IFERROR(C7-C11-L19,"")</f>
         <v/>
       </c>
-      <c r="N19" s="92" t="str">
+      <c r="N19" s="75" t="str">
         <f>IFERROR(Data!W7+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O19" s="100" t="str">
+      <c r="O19" s="5" t="str">
         <f>IF(M19="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P19" s="101" t="str">
+      <c r="P19" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q19" s="130" t="str">
+      <c r="Q19" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="7">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
         <v>2.15</v>
       </c>
-      <c r="C20" s="7" t="e">
+      <c r="C20" s="4" t="e">
         <f>IF(F8="",NA(),F8)</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="e">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="e">
         <f>IF(H8="",NA(),H8)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="6">
+      <c r="F20" s="12"/>
+      <c r="G20" s="3">
         <v>1.5</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="K20" s="114" t="str">
+      <c r="K20" s="88" t="str">
         <f>IF(M20="","","2 vs. 3")</f>
         <v/>
       </c>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100" t="str">
+      <c r="L20" s="79"/>
+      <c r="M20" s="5" t="str">
         <f>IFERROR(C8-C9-L20,"")</f>
         <v/>
       </c>
-      <c r="N20" s="92" t="str">
+      <c r="N20" s="75" t="str">
         <f>IFERROR(Data!W8+Data!W9-2,"")</f>
         <v/>
       </c>
-      <c r="O20" s="100" t="str">
+      <c r="O20" s="5" t="str">
         <f>IF(M20="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P20" s="101" t="str">
+      <c r="P20" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="130" t="str">
+      <c r="Q20" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="7">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>2.15</v>
       </c>
-      <c r="C21" s="6" t="e">
+      <c r="C21" s="3" t="e">
         <f>IF(C8="",NA(),C8)</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6" t="e">
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="e">
         <f>IF(C8="",NA(),C8)</f>
         <v>#N/A</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="6">
+      <c r="F21" s="12"/>
+      <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="K21" s="114" t="str">
+      <c r="K21" s="88" t="str">
         <f>IF(M21="","","2 vs. 4")</f>
         <v/>
       </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="100" t="str">
+      <c r="L21" s="79"/>
+      <c r="M21" s="5" t="str">
         <f>IFERROR(C8-C10-L21,"")</f>
         <v/>
       </c>
-      <c r="N21" s="92" t="str">
+      <c r="N21" s="75" t="str">
         <f>IFERROR(Data!W8+Data!W10-2,"")</f>
         <v/>
       </c>
-      <c r="O21" s="100" t="str">
+      <c r="O21" s="5" t="str">
         <f>IF(M21="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P21" s="101" t="str">
+      <c r="P21" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q21" s="130" t="str">
+      <c r="Q21" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="7">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
         <v>2.15</v>
       </c>
-      <c r="C22" s="7" t="e">
+      <c r="C22" s="4" t="e">
         <f>IF(E8="",NA(),E8)</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="e">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="e">
         <f>IF(G8="",NA(),G8)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="6">
+      <c r="F22" s="12"/>
+      <c r="G22" s="3">
         <v>2.5</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <f>L8</f>
         <v>0</v>
       </c>
-      <c r="K22" s="114" t="str">
+      <c r="K22" s="88" t="str">
         <f>IF(M22="","","2 vs. 5")</f>
         <v/>
       </c>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100" t="str">
+      <c r="L22" s="79"/>
+      <c r="M22" s="5" t="str">
         <f>IFERROR(C8-C11-L22,"")</f>
         <v/>
       </c>
-      <c r="N22" s="92" t="str">
+      <c r="N22" s="75" t="str">
         <f>IFERROR(Data!W8+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O22" s="100" t="str">
+      <c r="O22" s="5" t="str">
         <f>IF(M22="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P22" s="101" t="str">
+      <c r="P22" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q22" s="130" t="str">
+      <c r="Q22" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="7">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
         <v>3.15</v>
       </c>
-      <c r="C23" s="7" t="e">
+      <c r="C23" s="4" t="e">
         <f>IF(F9="",NA(),F9)</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="e">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="e">
         <f>IF(H9="",NA(),H9)</f>
         <v>#N/A</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="6">
+      <c r="F23" s="12"/>
+      <c r="G23" s="3">
         <v>2.5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="K23" s="114" t="str">
+      <c r="K23" s="88" t="str">
         <f>IF(M23="","","3 vs. 4")</f>
         <v/>
       </c>
-      <c r="L23" s="99"/>
-      <c r="M23" s="100" t="str">
+      <c r="L23" s="79"/>
+      <c r="M23" s="5" t="str">
         <f>IFERROR(C9-C10-L23,"")</f>
         <v/>
       </c>
-      <c r="N23" s="92" t="str">
+      <c r="N23" s="75" t="str">
         <f>IFERROR(Data!W9+Data!W10-2,"")</f>
         <v/>
       </c>
-      <c r="O23" s="100" t="str">
+      <c r="O23" s="5" t="str">
         <f>IF(M23="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P23" s="101" t="str">
+      <c r="P23" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q23" s="130" t="str">
+      <c r="Q23" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="7">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>3.15</v>
       </c>
-      <c r="C24" s="6" t="e">
+      <c r="C24" s="3" t="e">
         <f>IF(C9="",NA(),C9)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6" t="e">
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="e">
         <f>IF(C9="",NA(),C9)</f>
         <v>#N/A</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="6">
+      <c r="F24" s="12"/>
+      <c r="G24" s="3">
         <v>3</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="K24" s="114" t="str">
+      <c r="K24" s="88" t="str">
         <f>IF(M24="","","3 vs. 5")</f>
         <v/>
       </c>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100" t="str">
+      <c r="L24" s="79"/>
+      <c r="M24" s="5" t="str">
         <f>IFERROR(C9-C11-L24,"")</f>
         <v/>
       </c>
-      <c r="N24" s="92" t="str">
+      <c r="N24" s="75" t="str">
         <f>IFERROR(Data!W9+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O24" s="100" t="str">
+      <c r="O24" s="5" t="str">
         <f>IF(M24="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P24" s="101" t="str">
+      <c r="P24" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q24" s="130" t="str">
+      <c r="Q24" s="101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="7">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
         <v>3.15</v>
       </c>
-      <c r="C25" s="7" t="e">
+      <c r="C25" s="4" t="e">
         <f>IF(E9="",NA(),E9)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="e">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="e">
         <f>IF(G9="",NA(),G9)</f>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="6">
+      <c r="F25" s="12"/>
+      <c r="G25" s="3">
         <v>3.5</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="K25" s="114" t="str">
+      <c r="K25" s="88" t="str">
         <f>IF(M25="","","4 vs. 5")</f>
         <v/>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="100" t="str">
+      <c r="L25" s="81"/>
+      <c r="M25" s="5" t="str">
         <f>IFERROR(C10-C11-L25,"")</f>
         <v/>
       </c>
-      <c r="N25" s="94" t="str">
+      <c r="N25" s="34" t="str">
         <f>IFERROR(Data!W10+Data!W11-2,"")</f>
         <v/>
       </c>
-      <c r="O25" s="103" t="str">
+      <c r="O25" s="33" t="str">
         <f>IF(M25="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v/>
       </c>
-      <c r="P25" s="104" t="str">
+      <c r="P25" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q25" s="134" t="str">
+      <c r="Q25" s="105" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="7">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C26" s="7" t="e">
+      <c r="C26" s="4" t="e">
         <f>IF(F10="",NA(),F10)</f>
         <v>#N/A</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="e">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="e">
         <f>IF(H10="",NA(),H10)</f>
         <v>#N/A</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="6">
+      <c r="F26" s="12"/>
+      <c r="G26" s="3">
         <v>3.5</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="6">
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C27" s="6" t="e">
+      <c r="C27" s="3" t="e">
         <f>IF(C10="",NA(),C10)</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6" t="e">
+      <c r="D27" s="4"/>
+      <c r="E27" s="3" t="e">
         <f>IF(C10="",NA(),C10)</f>
         <v>#N/A</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="6">
+      <c r="F27" s="12"/>
+      <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="K27" s="124" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="6">
+      <c r="K27" s="95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C28" s="7" t="e">
+      <c r="C28" s="4" t="e">
         <f>IF(E10="",NA(),E10)</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="e">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="e">
         <f>IF(G10="",NA(),G10)</f>
         <v>#N/A</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="6">
+      <c r="F28" s="12"/>
+      <c r="G28" s="3">
         <v>4.5</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <f>L10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="6">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3">
         <v>5.15</v>
       </c>
-      <c r="C29" s="7" t="e">
+      <c r="C29" s="4" t="e">
         <f>IF(F11="",NA(),F11)</f>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="7" t="e">
+      <c r="D29" s="106"/>
+      <c r="E29" s="4" t="e">
         <f>IF(H11="",NA(),H11)</f>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="106">
         <v>4.5</v>
       </c>
-      <c r="H29" s="135">
+      <c r="H29" s="106">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="K29" s="136" t="str">
+      <c r="K29" s="107" t="str">
         <f>Data!T25</f>
         <v>Source</v>
       </c>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137" t="str">
+      <c r="L29" s="108"/>
+      <c r="M29" s="108" t="str">
         <f>Data!U25</f>
         <v>SS</v>
       </c>
-      <c r="N29" s="137" t="str">
+      <c r="N29" s="108" t="str">
         <f>Data!V25</f>
         <v>df</v>
       </c>
-      <c r="O29" s="137" t="str">
+      <c r="O29" s="108" t="str">
         <f>Data!W25</f>
         <v>MS</v>
       </c>
-      <c r="P29" s="137" t="str">
+      <c r="P29" s="108" t="str">
         <f>Data!X25</f>
         <v>F</v>
       </c>
-      <c r="Q29" s="137" t="str">
+      <c r="Q29" s="108" t="str">
         <f>Data!Y25</f>
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="6">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
         <v>5.15</v>
       </c>
-      <c r="C30" s="6" t="e">
+      <c r="C30" s="3" t="e">
         <f>IF(C11="",NA(),C11)</f>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="6" t="e">
+      <c r="D30" s="106"/>
+      <c r="E30" s="3" t="e">
         <f>IF(C11="",NA(),C11)</f>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="135">
+      <c r="G30" s="106">
         <v>5</v>
       </c>
-      <c r="H30" s="135">
+      <c r="H30" s="106">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="K30" s="138" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139" t="str">
+      <c r="K30" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78" t="str">
         <f>IF(Data!U26&gt;0,Data!U26,"")</f>
         <v/>
       </c>
-      <c r="N30" s="140" t="str">
+      <c r="N30" s="110" t="str">
         <f>IF(Data!V26&gt;0,Data!V26,"")</f>
         <v/>
       </c>
-      <c r="O30" s="139" t="str">
+      <c r="O30" s="78" t="str">
         <f>Data!W26</f>
         <v/>
       </c>
-      <c r="P30" s="139" t="str">
+      <c r="P30" s="78" t="str">
         <f>Data!X26</f>
         <v/>
       </c>
-      <c r="Q30" s="139" t="str">
+      <c r="Q30" s="78" t="str">
         <f>Data!Y26</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31" s="3">
         <v>5.15</v>
       </c>
-      <c r="C31" s="7" t="e">
+      <c r="C31" s="4" t="e">
         <f>IF(E11="",NA(),E11)</f>
         <v>#N/A</v>
       </c>
-      <c r="D31" s="135"/>
-      <c r="E31" s="7" t="e">
+      <c r="D31" s="106"/>
+      <c r="E31" s="4" t="e">
         <f>IF(G11="",NA(),G11)</f>
         <v>#N/A</v>
       </c>
-      <c r="G31" s="135">
+      <c r="G31" s="106">
         <v>5.5</v>
       </c>
-      <c r="H31" s="135">
+      <c r="H31" s="106">
         <f>L11</f>
         <v>0</v>
       </c>
-      <c r="K31" s="141" t="s">
-        <v>76</v>
-      </c>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142" t="str">
+      <c r="K31" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80" t="str">
         <f>IF(Data!U27&gt;0,Data!U27,"")</f>
         <v/>
       </c>
-      <c r="N31" s="143" t="str">
+      <c r="N31" s="112" t="str">
         <f>IF(Data!V27&gt;0,Data!V27,"")</f>
         <v/>
       </c>
-      <c r="O31" s="130" t="str">
+      <c r="O31" s="101" t="str">
         <f>Data!W27</f>
         <v/>
       </c>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="142"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="K32" s="144" t="str">
+      <c r="P31" s="101"/>
+      <c r="Q31" s="80"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="K32" s="113" t="str">
         <f>Data!T28</f>
         <v>Total</v>
       </c>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145" t="str">
+      <c r="L32" s="82"/>
+      <c r="M32" s="82" t="str">
         <f>Data!U28</f>
         <v/>
       </c>
-      <c r="N32" s="146" t="str">
+      <c r="N32" s="114" t="str">
         <f>IF(Data!V28&gt;0,Data!V28,"")</f>
         <v/>
       </c>
-      <c r="O32" s="145" t="str">
+      <c r="O32" s="82" t="str">
         <f>Data!W28</f>
         <v/>
       </c>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-    </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="15"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-    </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="23"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1"/>

--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B98294-0A16-4D77-B899-8D7A26436669}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CBCF18E-DAEC-48D6-B677-366D7A3C15E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,22 +325,22 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>Version: 2.20200104</t>
-  </si>
-  <si>
     <t>https://cwendorf.github.io/BASE/ARISE</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1100,18 +1100,22 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1124,40 +1128,36 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3021,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3078,7 +3078,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
       <c r="K3" s="119" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" s="119"/>
       <c r="M3" s="119"/>
@@ -3101,7 +3101,7 @@
       <c r="I4" s="116"/>
       <c r="J4" s="116"/>
       <c r="K4" s="120" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="119"/>
@@ -3392,13 +3392,13 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="K25" s="93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="K26" s="93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="K30" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C31" s="27"/>
       <c r="K31" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3464,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3631,13 +3631,13 @@
       <c r="Z6" s="71"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="T7" s="13">
@@ -3663,13 +3663,13 @@
       <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
       <c r="T8" s="49">
         <v>2</v>
       </c>
@@ -3755,13 +3755,13 @@
       <c r="Z10" s="64"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
       <c r="T11" s="49">
         <v>5</v>
       </c>
@@ -3785,13 +3785,13 @@
       <c r="Z11" s="64"/>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
       <c r="T12" s="16" t="s">
         <v>22</v>
       </c>
@@ -3815,13 +3815,13 @@
       <c r="Z12" s="62"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -3831,13 +3831,13 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
       <c r="T14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3926,12 +3926,12 @@
       <c r="Z18" s="47"/>
     </row>
     <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="128"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="135"/>
       <c r="H19" s="50"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
@@ -3944,12 +3944,12 @@
       <c r="Z19" s="47"/>
     </row>
     <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="130"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="126"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="42"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
@@ -4003,12 +4003,12 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="127"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="135"/>
       <c r="H23" s="50" t="str">
         <f>IF(B23="","",1)</f>
         <v/>
@@ -4024,11 +4024,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="123"/>
       <c r="H24" s="44" t="str">
         <f>IF(B24="","",2)</f>
@@ -4043,11 +4043,11 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="123"/>
       <c r="H25" s="44" t="str">
         <f>IF(B25="","",3)</f>
@@ -4076,11 +4076,11 @@
       </c>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="123"/>
       <c r="H26" s="43" t="str">
         <f>IF(B26="","",4)</f>
@@ -4115,12 +4115,12 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="126"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="42" t="str">
         <f>IF(B27="","",5)</f>
         <v/>
@@ -4200,6 +4200,15 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -4212,15 +4221,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CBCF18E-DAEC-48D6-B677-366D7A3C15E2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADBDCA5A-4218-445A-96A6-13B403DEFBD0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -1100,34 +1100,46 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1146,18 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2699,9 +2699,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2739,9 +2739,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2774,26 +2774,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2826,26 +2809,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3468,7 +3434,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -3631,13 +3597,13 @@
       <c r="Z6" s="71"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="T7" s="13">
@@ -3663,13 +3629,13 @@
       <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
       <c r="T8" s="49">
         <v>2</v>
       </c>
@@ -3755,13 +3721,13 @@
       <c r="Z10" s="64"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
       <c r="T11" s="49">
         <v>5</v>
       </c>
@@ -3785,13 +3751,13 @@
       <c r="Z11" s="64"/>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
       <c r="T12" s="16" t="s">
         <v>22</v>
       </c>
@@ -3815,13 +3781,13 @@
       <c r="Z12" s="62"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -3831,13 +3797,13 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
       <c r="T14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3926,12 +3892,12 @@
       <c r="Z18" s="47"/>
     </row>
     <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="135"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
       <c r="H19" s="50"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
@@ -3944,12 +3910,12 @@
       <c r="Z19" s="47"/>
     </row>
     <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="124"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="127"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="126"/>
       <c r="H20" s="42"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
@@ -4003,12 +3969,12 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="133"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="135"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="50" t="str">
         <f>IF(B23="","",1)</f>
         <v/>
@@ -4024,11 +3990,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="123"/>
       <c r="H24" s="44" t="str">
         <f>IF(B24="","",2)</f>
@@ -4043,11 +4009,11 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="123"/>
       <c r="H25" s="44" t="str">
         <f>IF(B25="","",3)</f>
@@ -4076,11 +4042,11 @@
       </c>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="123"/>
       <c r="H26" s="43" t="str">
         <f>IF(B26="","",4)</f>
@@ -4115,12 +4081,12 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="127"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="126"/>
       <c r="H27" s="42" t="str">
         <f>IF(B27="","",5)</f>
         <v/>
@@ -4200,15 +4166,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -4221,6 +4178,15 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADBDCA5A-4218-445A-96A6-13B403DEFBD0}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320D84EF-A356-442E-9F64-72B5A148A431}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,19 +328,19 @@
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/ARISE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Version: 2.210601</t>
-  </si>
-  <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/ARISE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -2698,6 +2698,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2988,7 +2992,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3044,7 +3048,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
       <c r="K3" s="119" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L3" s="119"/>
       <c r="M3" s="119"/>
@@ -3067,7 +3071,7 @@
       <c r="I4" s="116"/>
       <c r="J4" s="116"/>
       <c r="K4" s="120" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="119"/>
@@ -3364,7 +3368,7 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="K26" s="93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3413,7 +3417,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="K30" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3426,7 @@
       </c>
       <c r="C31" s="27"/>
       <c r="K31" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3430,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/ARISE/ARISE(D)-OneWay.xlsx
+++ b/ARISE/ARISE(D)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320D84EF-A356-442E-9F64-72B5A148A431}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="114_{4BF4E6E3-AE86-46AD-8AA4-F46126A3673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57DA18D5-490E-4ACD-B9B5-0DF2F996223F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,18 +1100,22 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1124,40 +1128,36 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2696,10 +2696,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3601,13 +3597,13 @@
       <c r="Z6" s="71"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="T7" s="13">
@@ -3633,13 +3629,13 @@
       <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
       <c r="T8" s="49">
         <v>2</v>
       </c>
@@ -3725,13 +3721,13 @@
       <c r="Z10" s="64"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
       <c r="T11" s="49">
         <v>5</v>
       </c>
@@ -3755,13 +3751,13 @@
       <c r="Z11" s="64"/>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
       <c r="T12" s="16" t="s">
         <v>22</v>
       </c>
@@ -3785,13 +3781,13 @@
       <c r="Z12" s="62"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -3801,13 +3797,13 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
       <c r="T14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3896,12 +3892,12 @@
       <c r="Z18" s="47"/>
     </row>
     <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="128"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="135"/>
       <c r="H19" s="50"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
@@ -3914,12 +3910,12 @@
       <c r="Z19" s="47"/>
     </row>
     <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="130"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="126"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="42"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
@@ -3973,12 +3969,12 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="127"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="135"/>
       <c r="H23" s="50" t="str">
         <f>IF(B23="","",1)</f>
         <v/>
@@ -3994,11 +3990,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="123"/>
       <c r="H24" s="44" t="str">
         <f>IF(B24="","",2)</f>
@@ -4013,11 +4009,11 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="123"/>
       <c r="H25" s="44" t="str">
         <f>IF(B25="","",3)</f>
@@ -4046,11 +4042,11 @@
       </c>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="123"/>
       <c r="H26" s="43" t="str">
         <f>IF(B26="","",4)</f>
@@ -4085,12 +4081,12 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="126"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="42" t="str">
         <f>IF(B27="","",5)</f>
         <v/>
@@ -4170,6 +4166,15 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -4182,15 +4187,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
